--- a/biology/Médecine/Élie_Lévy/Élie_Lévy.xlsx
+++ b/biology/Médecine/Élie_Lévy/Élie_Lévy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lie_L%C3%A9vy</t>
+          <t>Élie_Lévy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élie Lévy, né le 29 août 1895 à Compiègne et mort le 24 janvier 1945, est un médecin français, qui est pendant la Seconde Guerre mondiale un résistant actif dans le mouvement Libération et dans le réseau SPINDLE du Special Operations Executive. 
 Arrêté par les Italiens, il est livré aux Allemands et déporté à Auschwitz-Birkenau. Il meurt lors de l’évacuation du camp.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lie_L%C3%A9vy</t>
+          <t>Élie_Lévy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Son père : Jules Lévy, colonel du génie, retraité en 1912, ramené malade du front en 1915, décédé à Paris 37 rue d’Hauteville le 29 janvier 1915, dernier domicile à Montpellier (Archives de la Légion d’Honneur).
 Sa mère : Gentille Inès Noémie Milhaud.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lie_L%C3%A9vy</t>
+          <t>Élie_Lévy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Élie Victor Amédée Lévy est né le 29 août 1895 à Compiègne, où son père est officier du génie.
 Élie Lévy suit des études de médecine.
@@ -569,10 +585,10 @@
 des agents secrets, à qui il procure des faux papiers quand ils arrivent en France ou qu’il héberge avant leur départ par sous-marin ; certains sont opérateurs radio et ont des liaisons fréquentes avec Londres ; d’autres y font transiter des fonds destinés à la Résistance ;
 des pilotes abattus : Élie Lévy garde pendant plusieurs jours trois pilotes alliés, un Américain, un Polonais et un Anglais. Abattus et incarcérés dans un fort, ils se sont évadés grâce à la Résistance et ont pu gagner l’Espagne, sans qu’aucun d’eux parle français.
 Au sein de la Résistance, Élie Lévy utilise des pseudos, et notamment les pseudos « Louis », « Philippe » et « Oscar ».
-Élie Lévy est le principal organisateur de l’évasion d’un groupe d’officiers britanniques de la prison de Lille en 1941[1]. En août, il est recruté par Jacques Vaillant de Guélis pour le Special Operations Executive. Son nom a été communiqué à Vaillant de Guélis par Max Hymans, qui est un familier d'Antibes, lieu d’habitation de son beau-père Max Maurey depuis 1904.
+Élie Lévy est le principal organisateur de l’évasion d’un groupe d’officiers britanniques de la prison de Lille en 1941. En août, il est recruté par Jacques Vaillant de Guélis pour le Special Operations Executive. Son nom a été communiqué à Vaillant de Guélis par Max Hymans, qui est un familier d'Antibes, lieu d’habitation de son beau-père Max Maurey depuis 1904.
 Au début de l’année 1942, il rencontre Jean Moulin « Rex », l’envoyé du général de Gaulle qui a été parachuté dans la soirée du 1er janvier, et Peter Churchill « Michel », qui arrive chez lui le 10 janvier, première étape de sa première mission en France. En avril 1942, il accueille et héberge jusqu’au mois de juillet Maurice Pertschuk, jeune officier du SOE, futur chef du réseau Eugène-PRUNUS à Toulouse et sa région.  À l’été, Élie Lévy et sa femme quittent Antibes et vont se cacher près du lac de Laffrey (Isère). Puis, tandis que sa femme retourne à Antibes, il reste dans la Résistance à Lyon.
 Revenu à Antibes, Élie Lévy est arrêté par des policiers italiens de l’Ovra le 4 mai 1943. Il est enfermé au secret, à Nice. Il se retrouve, lors d’un interrogatoire, avec Peter Churchill et d’autres. Ils font semblant de ne pas se connaître, et personne ne parle. Élie Lévy est transféré à Imperia, où on l'emploie à casser des cailloux sur les routes. Il est ensuite transféré à Chiavari. Amedeo Rocchegiani, qui s’occupe d’envoyer de l’argent et des secours aux prisonniers juifs et politiques, organise l’évasion d'Élie Lévy de telle sorte qu’il aurait pu trouver refuge à l’hôpital d’Ancone, où tout était prévu pour sa sécurité. Ayant donné sa parole d’officier de ne pas s'évader, Élie Lévy refuse.
-En septembre, les Italiens livrent tous les prisonniers politiques aux Allemands. En tant que Juif, il est déporté à Auschwitz-Birkenau II, où il vit quinze mois d’enfer. Il porte le numéro de matricule B 13725 (tatoué sur le bras gauche) [2].
+En septembre, les Italiens livrent tous les prisonniers politiques aux Allemands. En tant que Juif, il est déporté à Auschwitz-Birkenau II, où il vit quinze mois d’enfer. Il porte le numéro de matricule B 13725 (tatoué sur le bras gauche) .
 Élie Lévy meurt le 24 janvier 1945, lors de l’évacuation du camp, devant l’avancée des troupes soviétiques. Il tombe épuisé sur la route entre Rybnik et Ratibor, probablement abattu. La « marche de la mort » dura 52 jours.
 </t>
         </is>
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lie_L%C3%A9vy</t>
+          <t>Élie_Lévy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,14 +620,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Distinctions
-Croix de guerre 1914-1918, avec palme ; citation au titre du régiment (31 août 1915)
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Croix de guerre 1914-1918, avec palme ; citation au titre du régiment (31 août 1915)
 Croix du combattant volontaire (6 janvier 1937)
 Médaille militaire ;
 Chevalier de la Légion d’honneur : chevalier (au titre de la guerre de 14-18, 2 janvier 1928) ; proposé en 1940 pour le grade d’Officier ;
-Cité à l’ordre de la brigade (16 juin 1940, homologation JO 31 juillet 1941) ; Croix de guerre 1939-1945.
-Monument
-Le nom d’Élie Lévy figure sur le monument érigé en mémoire des membres du SOE maritime, square Élie Lévy, à côté de la plage de l’Ilette, à Antibes.</t>
+Cité à l’ordre de la brigade (16 juin 1940, homologation JO 31 juillet 1941) ; Croix de guerre 1939-1945.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Élie_Lévy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lie_L%C3%A9vy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Reconnaissance</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Monument</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom d’Élie Lévy figure sur le monument érigé en mémoire des membres du SOE maritime, square Élie Lévy, à côté de la plage de l’Ilette, à Antibes.</t>
         </is>
       </c>
     </row>
